--- a/data/financial_statements/sofp/OTIS.xlsx
+++ b/data/financial_statements/sofp/OTIS.xlsx
@@ -14,9 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -146,9 +194,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,12 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,60 +553,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1041000000</v>
@@ -604,8 +646,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B3">
         <v>3103000000</v>
@@ -645,8 +687,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
         <v>603000000</v>
@@ -686,8 +728,8 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1082000000</v>
@@ -727,8 +769,8 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B6">
         <v>5829000000</v>
@@ -768,8 +810,8 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B7">
         <v>692000000</v>
@@ -809,8 +851,8 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B8">
         <v>6000000</v>
@@ -844,8 +886,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <v>1794000000</v>
@@ -897,8 +939,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B10">
         <v>290000000</v>
@@ -938,8 +980,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B11">
         <v>273000000</v>
@@ -979,8 +1021,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B12">
         <v>3513000000</v>
@@ -1020,8 +1062,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B13">
         <v>9342000000</v>
@@ -1073,16 +1115,16 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="L14">
         <v>67000000</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B15">
         <v>1521000000</v>
@@ -1122,8 +1164,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B16">
         <v>1662000000</v>
@@ -1163,8 +1205,8 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B17">
         <v>103000000</v>
@@ -1204,8 +1246,8 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1221,8 +1263,8 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1238,8 +1280,8 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B20">
         <v>2706000000</v>
@@ -1279,8 +1321,8 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B21">
         <v>5992000000</v>
@@ -1320,8 +1362,8 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B22">
         <v>6459000000</v>
@@ -1361,8 +1403,8 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B23">
         <v>48000000</v>
@@ -1408,8 +1450,8 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B24">
         <v>505000000</v>
@@ -1449,8 +1491,8 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B25">
         <v>244000000</v>
@@ -1490,8 +1532,8 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B26">
         <v>128000000</v>
@@ -1543,8 +1585,8 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B27">
         <v>550000000</v>
@@ -1584,8 +1626,8 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B28">
         <v>8211000000</v>
@@ -1625,8 +1667,8 @@
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B29">
         <v>14203000000</v>
@@ -1678,8 +1720,8 @@
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J30">
         <v>32000000</v>
@@ -1701,8 +1743,8 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -1718,8 +1760,8 @@
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B32">
         <v>134000000</v>
@@ -1771,8 +1813,8 @@
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B33">
         <v>-3042000000</v>
@@ -1806,8 +1848,8 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B34">
         <v>1425000000</v>
@@ -1844,8 +1886,8 @@
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="L35">
         <v>-3959000000</v>
@@ -1867,8 +1909,8 @@
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B36">
         <v>-4861000000</v>
@@ -1908,8 +1950,8 @@
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B37">
         <v>-4861000000</v>
@@ -1961,8 +2003,8 @@
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B38">
         <v>9342000000</v>
@@ -2014,8 +2056,8 @@
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B39">
         <v>416600000</v>
@@ -2052,8 +2094,8 @@
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B40">
         <v>-6655000000</v>
@@ -2093,8 +2135,8 @@
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B41">
         <v>5521000000</v>
@@ -2134,8 +2176,8 @@
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B42">
         <v>6562000000</v>
